--- a/SeleniumGrid/attachment/CorporateClientBulkData.xlsx
+++ b/SeleniumGrid/attachment/CorporateClientBulkData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebAutomationFinal\EdaatWebAutomation\SeleniumGrid\attachment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LetestEdaat_GitCode\LatestEdaatWebAutomation\SeleniumGrid\attachment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D6FC24-E55F-4329-A528-2D4E633BDDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648BB1F8-1C67-4849-9CFF-BFB2786550D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CompanyInfoDTO" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="82">
   <si>
     <t>NameAr</t>
   </si>
@@ -121,37 +121,163 @@
     <t>MRFS13250</t>
   </si>
   <si>
-    <t>MRFS13251</t>
-  </si>
-  <si>
-    <t>MRFS13252</t>
-  </si>
-  <si>
-    <t>MRFS13253</t>
-  </si>
-  <si>
-    <t>MRFS13254</t>
-  </si>
-  <si>
-    <t>MRFS13255</t>
-  </si>
-  <si>
-    <t>MRFS13256</t>
-  </si>
-  <si>
-    <t>MRFS13257</t>
-  </si>
-  <si>
-    <t>MRFS13258</t>
-  </si>
-  <si>
-    <t>MRFS13259</t>
-  </si>
-  <si>
-    <t>MRFS13260</t>
-  </si>
-  <si>
-    <t>MRFS13261</t>
+    <t>MOSS25264</t>
+  </si>
+  <si>
+    <t>MOSS25265</t>
+  </si>
+  <si>
+    <t>MOSS25266</t>
+  </si>
+  <si>
+    <t>MOSS25267</t>
+  </si>
+  <si>
+    <t>MOSS25268</t>
+  </si>
+  <si>
+    <t>MOSS25269</t>
+  </si>
+  <si>
+    <t>MOSS25270</t>
+  </si>
+  <si>
+    <t>MOSS25271</t>
+  </si>
+  <si>
+    <t>MOSS25272</t>
+  </si>
+  <si>
+    <t>MOSS25273</t>
+  </si>
+  <si>
+    <t>MOSS25274</t>
+  </si>
+  <si>
+    <t>MOSS25275</t>
+  </si>
+  <si>
+    <t>MOSS25276</t>
+  </si>
+  <si>
+    <t>MOSS25277</t>
+  </si>
+  <si>
+    <t>MOSS25278</t>
+  </si>
+  <si>
+    <t>MOSS25279</t>
+  </si>
+  <si>
+    <t>MOSS25280</t>
+  </si>
+  <si>
+    <t>MOSS25281</t>
+  </si>
+  <si>
+    <t>MOSS25282</t>
+  </si>
+  <si>
+    <t>MOSS25283</t>
+  </si>
+  <si>
+    <t>MOSS25284</t>
+  </si>
+  <si>
+    <t>MOSS25285</t>
+  </si>
+  <si>
+    <t>MOSS25286</t>
+  </si>
+  <si>
+    <t>MOSS25287</t>
+  </si>
+  <si>
+    <t>MOSS25288</t>
+  </si>
+  <si>
+    <t>MOSS25289</t>
+  </si>
+  <si>
+    <t>MOSS25290</t>
+  </si>
+  <si>
+    <t>MOSS25291</t>
+  </si>
+  <si>
+    <t>MOSS25292</t>
+  </si>
+  <si>
+    <t>MOSS25293</t>
+  </si>
+  <si>
+    <t>MOSS25294</t>
+  </si>
+  <si>
+    <t>MOSS25295</t>
+  </si>
+  <si>
+    <t>MOSS25300</t>
+  </si>
+  <si>
+    <t>MOSS25301</t>
+  </si>
+  <si>
+    <t>MOSS25305</t>
+  </si>
+  <si>
+    <t>MOSS25306</t>
+  </si>
+  <si>
+    <t>MOSS25307</t>
+  </si>
+  <si>
+    <t>MOSS25308</t>
+  </si>
+  <si>
+    <t>MOSS25309</t>
+  </si>
+  <si>
+    <t>MOSS25310</t>
+  </si>
+  <si>
+    <t>MOSS25313</t>
+  </si>
+  <si>
+    <t>MOSS25314</t>
+  </si>
+  <si>
+    <t>MOSS25315</t>
+  </si>
+  <si>
+    <t>MOSS25316</t>
+  </si>
+  <si>
+    <t>MOSS25317</t>
+  </si>
+  <si>
+    <t>MOSS25322</t>
+  </si>
+  <si>
+    <t>MOSS25323</t>
+  </si>
+  <si>
+    <t>MOSS25324</t>
+  </si>
+  <si>
+    <t>MOSS25325</t>
+  </si>
+  <si>
+    <t>MOSS25326</t>
+  </si>
+  <si>
+    <t>MOSS25327</t>
+  </si>
+  <si>
+    <t>MOSS25328</t>
+  </si>
+  <si>
+    <t>MOSS25329</t>
   </si>
 </sst>
 </file>
@@ -226,23 +352,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -524,21 +649,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="17.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="17.453125" style="1" customWidth="1"/>
     <col min="11" max="12" width="17.7265625" style="1" customWidth="1"/>
@@ -552,7 +677,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -561,13 +686,13 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -578,7 +703,7 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="5">
         <v>9888888801</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -587,13 +712,13 @@
       <c r="D2" s="1">
         <v>9943567799</v>
       </c>
-      <c r="E2" s="3">
-        <v>1059308949</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="7">
+        <v>1778988922</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -604,7 +729,7 @@
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="5">
         <v>9888888802</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -613,13 +738,13 @@
       <c r="D3" s="1">
         <v>9943567799</v>
       </c>
-      <c r="E3" s="3">
-        <v>1059308949</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="E3" s="7">
+        <v>1778988923</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -630,7 +755,7 @@
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="5">
         <v>9888888803</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -639,13 +764,13 @@
       <c r="D4" s="1">
         <v>9943567799</v>
       </c>
-      <c r="E4" s="3">
-        <v>1059308949</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="E4" s="7">
+        <v>1778988924</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -656,7 +781,7 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="5">
         <v>9888888804</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -665,13 +790,13 @@
       <c r="D5" s="1">
         <v>9943567799</v>
       </c>
-      <c r="E5" s="3">
-        <v>1059308949</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="E5" s="7">
+        <v>1778988925</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -682,7 +807,7 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="5">
         <v>9888888805</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -691,13 +816,13 @@
       <c r="D6" s="1">
         <v>9943567799</v>
       </c>
-      <c r="E6" s="3">
-        <v>1059308949</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="E6" s="7">
+        <v>1778988926</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -708,7 +833,7 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="5">
         <v>9888888806</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -717,13 +842,13 @@
       <c r="D7" s="1">
         <v>9943567799</v>
       </c>
-      <c r="E7" s="3">
-        <v>1059308949</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="E7" s="7">
+        <v>1778988927</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -734,7 +859,7 @@
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="5">
         <v>9888888807</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -743,13 +868,13 @@
       <c r="D8" s="1">
         <v>9943567799</v>
       </c>
-      <c r="E8" s="3">
-        <v>1059308949</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="E8" s="7">
+        <v>1778988928</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -760,7 +885,7 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="5">
         <v>9888888808</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -769,13 +894,13 @@
       <c r="D9" s="1">
         <v>9943567799</v>
       </c>
-      <c r="E9" s="3">
-        <v>1059308949</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="E9" s="7">
+        <v>1778988929</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -786,7 +911,7 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="5">
         <v>9888888809</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -795,13 +920,13 @@
       <c r="D10" s="1">
         <v>9943567799</v>
       </c>
-      <c r="E10" s="3">
-        <v>1059308949</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="E10" s="7">
+        <v>1778988930</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -812,7 +937,7 @@
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="5">
         <v>9888888810</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -821,13 +946,13 @@
       <c r="D11" s="1">
         <v>9943567799</v>
       </c>
-      <c r="E11" s="3">
-        <v>1059308949</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="E11" s="7">
+        <v>1778988931</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -838,7 +963,7 @@
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="5">
         <v>9888888811</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -847,13 +972,13 @@
       <c r="D12" s="1">
         <v>9943567799</v>
       </c>
-      <c r="E12" s="3">
-        <v>1059308949</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="E12" s="7">
+        <v>1778988932</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -864,7 +989,7 @@
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="5">
         <v>9888888812</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -873,13 +998,13 @@
       <c r="D13" s="1">
         <v>9943567799</v>
       </c>
-      <c r="E13" s="3">
-        <v>1059308949</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="E13" s="7">
+        <v>1778988933</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -890,7 +1015,7 @@
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="5">
         <v>9888888813</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -899,13 +1024,13 @@
       <c r="D14" s="1">
         <v>9943567799</v>
       </c>
-      <c r="E14" s="3">
-        <v>1059308949</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="6" t="s">
+      <c r="E14" s="7">
+        <v>1778988934</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -916,7 +1041,7 @@
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="5">
         <v>9888888814</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -925,13 +1050,13 @@
       <c r="D15" s="1">
         <v>9943567799</v>
       </c>
-      <c r="E15" s="3">
-        <v>1059308949</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="6" t="s">
+      <c r="E15" s="7">
+        <v>1778988935</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -942,7 +1067,7 @@
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>9888888815</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -951,13 +1076,13 @@
       <c r="D16" s="1">
         <v>9943567799</v>
       </c>
-      <c r="E16" s="3">
-        <v>1059308949</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="E16" s="7">
+        <v>1778988936</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -968,7 +1093,7 @@
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>9888888816</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -977,13 +1102,13 @@
       <c r="D17" s="1">
         <v>9943567799</v>
       </c>
-      <c r="E17" s="3">
-        <v>1059308949</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="E17" s="7">
+        <v>1778988937</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -994,7 +1119,7 @@
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>9888888817</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1003,13 +1128,13 @@
       <c r="D18" s="1">
         <v>9943567799</v>
       </c>
-      <c r="E18" s="3">
-        <v>1059308949</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="E18" s="7">
+        <v>1778988938</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>28</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -1020,8 +1145,8 @@
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="7">
-        <v>9888888818</v>
+      <c r="B19" s="5">
+        <v>3556879743</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>9</v>
@@ -1029,13 +1154,13 @@
       <c r="D19" s="1">
         <v>9943567799</v>
       </c>
-      <c r="E19" s="3">
-        <v>1059308949</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="E19" s="7">
+        <v>1778988939</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -1046,8 +1171,8 @@
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="7">
-        <v>9888888819</v>
+      <c r="B20" s="5">
+        <v>3556879744</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>9</v>
@@ -1055,13 +1180,13 @@
       <c r="D20" s="1">
         <v>9943567799</v>
       </c>
-      <c r="E20" s="3">
-        <v>1059308949</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="E20" s="7">
+        <v>1778988940</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -1072,8 +1197,8 @@
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="7">
-        <v>9888888820</v>
+      <c r="B21" s="5">
+        <v>3556879745</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>9</v>
@@ -1081,13 +1206,13 @@
       <c r="D21" s="1">
         <v>9943567799</v>
       </c>
-      <c r="E21" s="3">
-        <v>1059308949</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="7" t="s">
+      <c r="E21" s="7">
+        <v>1778988941</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -1098,8 +1223,8 @@
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="7">
-        <v>9888888821</v>
+      <c r="B22" s="5">
+        <v>3556879746</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>9</v>
@@ -1107,13 +1232,13 @@
       <c r="D22" s="1">
         <v>9943567799</v>
       </c>
-      <c r="E22" s="3">
-        <v>1059308949</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="E22" s="7">
+        <v>1778988942</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -1124,8 +1249,8 @@
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="7">
-        <v>9888888822</v>
+      <c r="B23" s="5">
+        <v>3556879747</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>9</v>
@@ -1133,13 +1258,13 @@
       <c r="D23" s="1">
         <v>9943567799</v>
       </c>
-      <c r="E23" s="3">
-        <v>1059308949</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="E23" s="7">
+        <v>1778988943</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -1150,8 +1275,8 @@
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="7">
-        <v>9888888823</v>
+      <c r="B24" s="5">
+        <v>3556879748</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>9</v>
@@ -1159,13 +1284,13 @@
       <c r="D24" s="1">
         <v>9943567799</v>
       </c>
-      <c r="E24" s="3">
-        <v>1059308949</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="E24" s="7">
+        <v>1778988944</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -1176,8 +1301,8 @@
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="7">
-        <v>9888888824</v>
+      <c r="B25" s="5">
+        <v>3556879749</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>9</v>
@@ -1185,13 +1310,13 @@
       <c r="D25" s="1">
         <v>9943567799</v>
       </c>
-      <c r="E25" s="3">
-        <v>1059308949</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="E25" s="7">
+        <v>1778988945</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -1202,8 +1327,8 @@
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="7">
-        <v>9888888825</v>
+      <c r="B26" s="5">
+        <v>3556879750</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>9</v>
@@ -1211,13 +1336,13 @@
       <c r="D26" s="1">
         <v>9943567799</v>
       </c>
-      <c r="E26" s="3">
-        <v>1059308949</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="E26" s="7">
+        <v>1778988946</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H26" s="1" t="s">
@@ -1228,8 +1353,8 @@
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="7">
-        <v>9888888826</v>
+      <c r="B27" s="5">
+        <v>3556879751</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>9</v>
@@ -1237,13 +1362,13 @@
       <c r="D27" s="1">
         <v>9943567799</v>
       </c>
-      <c r="E27" s="3">
-        <v>1059308949</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="7" t="s">
+      <c r="E27" s="7">
+        <v>1778988947</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -1254,8 +1379,8 @@
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="7">
-        <v>9888888827</v>
+      <c r="B28" s="5">
+        <v>3556879752</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>9</v>
@@ -1263,13 +1388,13 @@
       <c r="D28" s="1">
         <v>9943567799</v>
       </c>
-      <c r="E28" s="3">
-        <v>1059308949</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="E28" s="7">
+        <v>1778988948</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H28" s="1" t="s">
@@ -1280,8 +1405,8 @@
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="7">
-        <v>9888888828</v>
+      <c r="B29" s="5">
+        <v>3556879753</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>9</v>
@@ -1289,16 +1414,1108 @@
       <c r="D29" s="1">
         <v>9943567799</v>
       </c>
-      <c r="E29" s="3">
-        <v>1059308949</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="E29" s="7">
+        <v>1778988949</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>39</v>
       </c>
       <c r="H29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="5">
+        <v>3556879754</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1778988950</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="5">
+        <v>3556879755</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1778988951</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="5">
+        <v>3556879756</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1778988952</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="5">
+        <v>3556879757</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1778988953</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="5">
+        <v>3556879758</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1778988954</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="5">
+        <v>3556879759</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1778988955</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="5">
+        <v>3556879760</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1778988956</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="5">
+        <v>3556879761</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1778988957</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="5">
+        <v>3556879762</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1778988958</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="5">
+        <v>3556879763</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1778988959</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="5">
+        <v>3556879764</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1778988960</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="5">
+        <v>3556879765</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1778988961</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="5">
+        <v>3556879766</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1778988962</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="5">
+        <v>3556879767</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E43" s="7">
+        <v>1778988963</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="5">
+        <v>3556879768</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E44" s="7">
+        <v>1778988964</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="5">
+        <v>3556879769</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E45" s="7">
+        <v>1778988965</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="5">
+        <v>3556879770</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E46" s="7">
+        <v>1778988966</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="5">
+        <v>3556879771</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E47" s="7">
+        <v>1778988967</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="5">
+        <v>3556879772</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E48" s="7">
+        <v>1778988968</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="5">
+        <v>3556879773</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E49" s="7">
+        <v>1778988969</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="5">
+        <v>3556879774</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E50" s="7">
+        <v>1778988970</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="5">
+        <v>3556879780</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E51" s="7">
+        <v>1778988980</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="5">
+        <v>3556879781</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E52" s="7">
+        <v>1778988981</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="5">
+        <v>3556879785</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E53" s="7">
+        <v>1778988985</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="5">
+        <v>3556879786</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E54" s="7">
+        <v>1778988986</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="5">
+        <v>3556879787</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E55" s="7">
+        <v>1778988987</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="5">
+        <v>3556879788</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E56" s="7">
+        <v>1778988988</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="5">
+        <v>3556879789</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E57" s="7">
+        <v>1778988989</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="5">
+        <v>3556879790</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E58" s="7">
+        <v>1778988990</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="5">
+        <v>3556879793</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E59" s="7">
+        <v>1778988993</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="5">
+        <v>3556879794</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E60" s="7">
+        <v>1778988994</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="5">
+        <v>3556879795</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E61" s="7">
+        <v>1778988995</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="5">
+        <v>3556879796</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E62" s="7">
+        <v>1778988996</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="5">
+        <v>3556879797</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E63" s="7">
+        <v>1778988997</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="5">
+        <v>3556879802</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E64" s="7">
+        <v>1778989002</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="5">
+        <v>3556879803</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E65" s="7">
+        <v>1778989003</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="5">
+        <v>3556879804</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E66" s="7">
+        <v>1778989004</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="5">
+        <v>3556879805</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E67" s="7">
+        <v>1778989005</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="5">
+        <v>3556879806</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E68" s="7">
+        <v>1778989006</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="5">
+        <v>3556879807</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E69" s="7">
+        <v>1778989007</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="5">
+        <v>3556879808</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E70" s="7">
+        <v>1778989008</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="5">
+        <v>3556879809</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="1">
+        <v>9943567799</v>
+      </c>
+      <c r="E71" s="7">
+        <v>1778989009</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1322,20 +2539,59 @@
     <hyperlink ref="F16" r:id="rId15" xr:uid="{E9970734-9210-47C6-81B7-4FD8B6134991}"/>
     <hyperlink ref="F17" r:id="rId16" xr:uid="{062A850B-E572-46F1-B0A9-EF25CE9D1D8F}"/>
     <hyperlink ref="F18" r:id="rId17" xr:uid="{DE2C2060-0F57-4E00-B007-9D86715DBDAC}"/>
-    <hyperlink ref="F19" r:id="rId18" xr:uid="{CF6EA68D-0A34-4DFE-8844-E78863988BD8}"/>
-    <hyperlink ref="F20" r:id="rId19" xr:uid="{E0433BFA-F5EC-4726-A5D2-69201B6AFB3A}"/>
-    <hyperlink ref="F21" r:id="rId20" xr:uid="{1C5FDDD7-56C0-41DB-8F3C-6E7098B49C78}"/>
-    <hyperlink ref="F22" r:id="rId21" xr:uid="{22611C53-CCCE-452F-A95B-99008CAEAC9E}"/>
-    <hyperlink ref="F23" r:id="rId22" xr:uid="{A38E0258-A2C3-4DD8-9232-C168B89C854A}"/>
-    <hyperlink ref="F24" r:id="rId23" xr:uid="{F5972511-F06D-4851-A09A-C68C60F8FE5E}"/>
-    <hyperlink ref="F25" r:id="rId24" xr:uid="{900613DD-AD03-41D7-9436-6092B1B5D20F}"/>
-    <hyperlink ref="F26" r:id="rId25" xr:uid="{51B7684C-3C8C-4DEC-8476-E4E396E7C7AD}"/>
-    <hyperlink ref="F27" r:id="rId26" xr:uid="{531BCAF1-34B2-4C67-91EC-A99182E739E6}"/>
-    <hyperlink ref="F28" r:id="rId27" xr:uid="{2B378B06-CE8A-47B0-B553-9B6D4B282807}"/>
-    <hyperlink ref="F29" r:id="rId28" xr:uid="{E3ACBD54-C439-4379-B708-EAD5F3A3EE89}"/>
+    <hyperlink ref="F19:F20" r:id="rId18" display="Tester@gmail.com" xr:uid="{E9B3F64D-25E9-4885-B626-49DA4EF781D8}"/>
+    <hyperlink ref="F21" r:id="rId19" xr:uid="{E86A8FCB-5679-4A13-B947-586028170634}"/>
+    <hyperlink ref="F22" r:id="rId20" xr:uid="{0E064D1B-F37D-48D7-8A44-7ABC14ADA573}"/>
+    <hyperlink ref="F23" r:id="rId21" xr:uid="{712CE37C-2B77-4464-B6E4-AE5F95A25181}"/>
+    <hyperlink ref="F24" r:id="rId22" xr:uid="{B602D6A1-4351-4E8C-87E1-5971F1AC0B65}"/>
+    <hyperlink ref="F25" r:id="rId23" xr:uid="{39F83D39-172D-49C3-AB5F-F75F60EFB63F}"/>
+    <hyperlink ref="F26" r:id="rId24" xr:uid="{8344FE04-0D7D-46D9-A42F-643A122A3773}"/>
+    <hyperlink ref="F27" r:id="rId25" xr:uid="{BB4A06EB-3931-4ADE-86BD-3209EC2B6665}"/>
+    <hyperlink ref="F28" r:id="rId26" xr:uid="{F3A41147-1D36-4086-A75F-F76BBECABE7C}"/>
+    <hyperlink ref="F29" r:id="rId27" xr:uid="{C43B752C-DC1B-45BB-AA04-04CCB31971E1}"/>
+    <hyperlink ref="F30" r:id="rId28" xr:uid="{9BB0BFF9-6EE3-48EE-ABFB-298D0773A983}"/>
+    <hyperlink ref="F31:F32" r:id="rId29" display="Tester@gmail.com" xr:uid="{F449775E-5A3A-4145-8308-5B55D747C60C}"/>
+    <hyperlink ref="F33" r:id="rId30" xr:uid="{E07EE05E-8A0A-4758-A7F6-E5E203D3B86C}"/>
+    <hyperlink ref="F34" r:id="rId31" xr:uid="{C12148EC-0CF3-44E9-A61F-DE8BF3222BE5}"/>
+    <hyperlink ref="F35" r:id="rId32" xr:uid="{ED1CF6CF-98DC-486C-9C38-A529D163EA15}"/>
+    <hyperlink ref="F36" r:id="rId33" xr:uid="{1E6B9A1A-2B08-4CD1-A05B-78C10E0F4937}"/>
+    <hyperlink ref="F37" r:id="rId34" xr:uid="{F7558C42-516B-45A4-8E68-90D621E5E48A}"/>
+    <hyperlink ref="F38" r:id="rId35" xr:uid="{DB8D87FB-7977-4AE4-93AD-E875C3F85F62}"/>
+    <hyperlink ref="F39" r:id="rId36" xr:uid="{0462232C-FF96-4A05-8698-8B457E53F56A}"/>
+    <hyperlink ref="F40" r:id="rId37" xr:uid="{4DBA2EB0-01C2-49AC-9885-FACD83219775}"/>
+    <hyperlink ref="F41" r:id="rId38" xr:uid="{5D1EA5EF-B330-4FC6-BE9E-B4A8FF0B89FA}"/>
+    <hyperlink ref="F42" r:id="rId39" xr:uid="{560C15DE-9F81-4149-BC2F-DF84AE65B2A6}"/>
+    <hyperlink ref="F43" r:id="rId40" xr:uid="{8EA78797-8068-4551-AEA5-3BEBE1D8CAC1}"/>
+    <hyperlink ref="F44" r:id="rId41" xr:uid="{9E5DC2EA-7868-4FFD-B154-AE5579EA1854}"/>
+    <hyperlink ref="F45:F46" r:id="rId42" display="Tester@gmail.com" xr:uid="{7EFDD1CD-91DC-4CEE-935C-8B4EDE46EAC9}"/>
+    <hyperlink ref="F47" r:id="rId43" xr:uid="{2383CAF7-3A6E-4F7D-B18B-45A392249902}"/>
+    <hyperlink ref="F48" r:id="rId44" xr:uid="{F6C7B42F-3CD3-4D70-9D74-077D17FE9085}"/>
+    <hyperlink ref="F49" r:id="rId45" xr:uid="{2870D99B-5E78-4C1E-87E9-68B9BA76ED36}"/>
+    <hyperlink ref="F50" r:id="rId46" xr:uid="{20D9ED10-344A-4817-8782-09B6D540C806}"/>
+    <hyperlink ref="F51" r:id="rId47" xr:uid="{4168FCB9-4CB2-4634-9EB4-98E01BBD1E2E}"/>
+    <hyperlink ref="F52" r:id="rId48" xr:uid="{C57BAA9F-2739-4F52-90C8-1C3FD5DBC888}"/>
+    <hyperlink ref="F53" r:id="rId49" xr:uid="{D6BE101B-6278-4CFF-AE97-25CF126C77D0}"/>
+    <hyperlink ref="F54" r:id="rId50" xr:uid="{39F79E2A-A02D-4E04-958B-E18AA20D2D4C}"/>
+    <hyperlink ref="F55" r:id="rId51" xr:uid="{2F6EE5D2-CB0B-4E3B-998B-188FDCBBA73C}"/>
+    <hyperlink ref="F56" r:id="rId52" xr:uid="{47B55985-B548-4405-B13A-7776ADF0E844}"/>
+    <hyperlink ref="F57" r:id="rId53" xr:uid="{C0F7AD6B-2FDE-4C47-A204-80BF1F1A737B}"/>
+    <hyperlink ref="F58" r:id="rId54" xr:uid="{EA169921-5010-4119-AACD-015FF8D266F4}"/>
+    <hyperlink ref="F59" r:id="rId55" xr:uid="{067C98E7-845D-48BC-A027-05F5D28F270D}"/>
+    <hyperlink ref="F60" r:id="rId56" xr:uid="{EA8C67D5-E40B-4C03-8C24-4B0806282116}"/>
+    <hyperlink ref="F61" r:id="rId57" xr:uid="{A8D9AB6F-20D5-4BDA-9EB0-7F7E96D0DA18}"/>
+    <hyperlink ref="F62" r:id="rId58" xr:uid="{CD5CCF34-3FD6-465C-A201-9A9136F5375B}"/>
+    <hyperlink ref="F63" r:id="rId59" xr:uid="{B0F48041-5F9B-4AE9-BF6C-CED7115FEB44}"/>
+    <hyperlink ref="F64" r:id="rId60" xr:uid="{6E184BE4-90F2-45BC-B45E-FB84ECE02E29}"/>
+    <hyperlink ref="F65" r:id="rId61" xr:uid="{C7BE0CA5-883A-4EE2-947E-3C7C87E868A6}"/>
+    <hyperlink ref="F66" r:id="rId62" xr:uid="{241F5E70-03E2-42E3-867C-334E6AFD2578}"/>
+    <hyperlink ref="F67" r:id="rId63" xr:uid="{4AD68760-968C-46D3-B8CD-19D8F80AB834}"/>
+    <hyperlink ref="F68" r:id="rId64" xr:uid="{31D3E517-8F57-41AF-8A60-287C68AFBD68}"/>
+    <hyperlink ref="F69" r:id="rId65" xr:uid="{FEBD1DA9-69AC-4C7E-9B2C-7EF010248279}"/>
+    <hyperlink ref="F70" r:id="rId66" xr:uid="{4C08F54B-BF8E-4715-A82D-E4D01E23C989}"/>
+    <hyperlink ref="F71" r:id="rId67" xr:uid="{ADD1B1B7-1AA9-4F9B-A19B-F36420B8203E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId29"/>
+  <pageSetup orientation="portrait" r:id="rId68"/>
 </worksheet>
 </file>
 
